--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -473,6 +473,81 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -830,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3369,6 +3444,431 @@
         <v>3.21</v>
       </c>
     </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>3.34</v>
+      </c>
+      <c r="C150">
+        <v>3.38</v>
+      </c>
+      <c r="D150">
+        <v>3.24</v>
+      </c>
+      <c r="E150">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>3.39</v>
+      </c>
+      <c r="C151">
+        <v>3.41</v>
+      </c>
+      <c r="D151">
+        <v>3.26</v>
+      </c>
+      <c r="E151">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>3.38</v>
+      </c>
+      <c r="C152">
+        <v>3.4</v>
+      </c>
+      <c r="D152">
+        <v>3.28</v>
+      </c>
+      <c r="E152">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>3.45</v>
+      </c>
+      <c r="C153">
+        <v>3.4</v>
+      </c>
+      <c r="D153">
+        <v>3.27</v>
+      </c>
+      <c r="E153">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>3.86</v>
+      </c>
+      <c r="C154">
+        <v>3.54</v>
+      </c>
+      <c r="D154">
+        <v>3.33</v>
+      </c>
+      <c r="E154">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>3.8</v>
+      </c>
+      <c r="C155">
+        <v>3.54</v>
+      </c>
+      <c r="D155">
+        <v>3.33</v>
+      </c>
+      <c r="E155">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>3.75</v>
+      </c>
+      <c r="C156">
+        <v>3.54</v>
+      </c>
+      <c r="D156">
+        <v>3.31</v>
+      </c>
+      <c r="E156">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>3.97</v>
+      </c>
+      <c r="C157">
+        <v>3.72</v>
+      </c>
+      <c r="D157">
+        <v>3.43</v>
+      </c>
+      <c r="E157">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>4.2</v>
+      </c>
+      <c r="C158">
+        <v>3.81</v>
+      </c>
+      <c r="D158">
+        <v>3.5</v>
+      </c>
+      <c r="E158">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>4.33</v>
+      </c>
+      <c r="C159">
+        <v>3.91</v>
+      </c>
+      <c r="D159">
+        <v>3.56</v>
+      </c>
+      <c r="E159">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>4.46</v>
+      </c>
+      <c r="C160">
+        <v>4.06</v>
+      </c>
+      <c r="D160">
+        <v>3.66</v>
+      </c>
+      <c r="E160">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>4.4</v>
+      </c>
+      <c r="C161">
+        <v>3.98</v>
+      </c>
+      <c r="D161">
+        <v>3.58</v>
+      </c>
+      <c r="E161">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>4.3</v>
+      </c>
+      <c r="C162">
+        <v>3.91</v>
+      </c>
+      <c r="D162">
+        <v>3.51</v>
+      </c>
+      <c r="E162">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>4.35</v>
+      </c>
+      <c r="C163">
+        <v>3.93</v>
+      </c>
+      <c r="D163">
+        <v>3.52</v>
+      </c>
+      <c r="E163">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>4.37</v>
+      </c>
+      <c r="C164">
+        <v>3.98</v>
+      </c>
+      <c r="D164">
+        <v>3.56</v>
+      </c>
+      <c r="E164">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>4.38</v>
+      </c>
+      <c r="C165">
+        <v>4.01</v>
+      </c>
+      <c r="D165">
+        <v>3.59</v>
+      </c>
+      <c r="E165">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>4.4</v>
+      </c>
+      <c r="C166">
+        <v>4.01</v>
+      </c>
+      <c r="D166">
+        <v>3.57</v>
+      </c>
+      <c r="E166">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>4.38</v>
+      </c>
+      <c r="C167">
+        <v>4.03</v>
+      </c>
+      <c r="D167">
+        <v>3.57</v>
+      </c>
+      <c r="E167">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>4.4</v>
+      </c>
+      <c r="C168">
+        <v>4.06</v>
+      </c>
+      <c r="D168">
+        <v>3.6</v>
+      </c>
+      <c r="E168">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>4.46</v>
+      </c>
+      <c r="C169">
+        <v>4.08</v>
+      </c>
+      <c r="D169">
+        <v>3.58</v>
+      </c>
+      <c r="E169">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>4.48</v>
+      </c>
+      <c r="C170">
+        <v>4.1</v>
+      </c>
+      <c r="D170">
+        <v>3.58</v>
+      </c>
+      <c r="E170">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>4.48</v>
+      </c>
+      <c r="C171">
+        <v>4.02</v>
+      </c>
+      <c r="D171">
+        <v>3.53</v>
+      </c>
+      <c r="E171">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>4.5</v>
+      </c>
+      <c r="C172">
+        <v>4.11</v>
+      </c>
+      <c r="D172">
+        <v>3.5</v>
+      </c>
+      <c r="E172">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>4.37</v>
+      </c>
+      <c r="C173">
+        <v>4.07</v>
+      </c>
+      <c r="D173">
+        <v>3.5</v>
+      </c>
+      <c r="E173">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>4.56</v>
+      </c>
+      <c r="C174">
+        <v>4.12</v>
+      </c>
+      <c r="D174">
+        <v>3.53</v>
+      </c>
+      <c r="E174">
+        <v>3.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,21 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3869,6 +3884,91 @@
         <v>3.37</v>
       </c>
     </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>4.86</v>
+      </c>
+      <c r="C175">
+        <v>4.17</v>
+      </c>
+      <c r="D175">
+        <v>3.56</v>
+      </c>
+      <c r="E175">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>4.73</v>
+      </c>
+      <c r="C176">
+        <v>4.13</v>
+      </c>
+      <c r="D176">
+        <v>3.56</v>
+      </c>
+      <c r="E176">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>4.81</v>
+      </c>
+      <c r="C177">
+        <v>4.11</v>
+      </c>
+      <c r="D177">
+        <v>3.59</v>
+      </c>
+      <c r="E177">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>4.88</v>
+      </c>
+      <c r="C178">
+        <v>4.11</v>
+      </c>
+      <c r="D178">
+        <v>3.63</v>
+      </c>
+      <c r="E178">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>4.81</v>
+      </c>
+      <c r="C179">
+        <v>4.07</v>
+      </c>
+      <c r="D179">
+        <v>3.65</v>
+      </c>
+      <c r="E179">
+        <v>3.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,18 @@
   </si>
   <si>
     <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3969,6 +3981,71 @@
         <v>3.47</v>
       </c>
     </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>4.79</v>
+      </c>
+      <c r="C180">
+        <v>4.05</v>
+      </c>
+      <c r="D180">
+        <v>3.6</v>
+      </c>
+      <c r="E180">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>4.76</v>
+      </c>
+      <c r="C181">
+        <v>4.02</v>
+      </c>
+      <c r="D181">
+        <v>3.55</v>
+      </c>
+      <c r="E181">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>4.71</v>
+      </c>
+      <c r="C182">
+        <v>3.99</v>
+      </c>
+      <c r="D182">
+        <v>3.49</v>
+      </c>
+      <c r="E182">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>4.65</v>
+      </c>
+      <c r="D183">
+        <v>3.48</v>
+      </c>
+      <c r="E183">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,21 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4046,6 +4061,91 @@
         <v>3.4</v>
       </c>
     </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>4.38</v>
+      </c>
+      <c r="C184">
+        <v>3.91</v>
+      </c>
+      <c r="D184">
+        <v>3.46</v>
+      </c>
+      <c r="E184">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>4.34</v>
+      </c>
+      <c r="C185">
+        <v>3.86</v>
+      </c>
+      <c r="D185">
+        <v>3.41</v>
+      </c>
+      <c r="E185">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>4.34</v>
+      </c>
+      <c r="C186">
+        <v>3.89</v>
+      </c>
+      <c r="D186">
+        <v>3.43</v>
+      </c>
+      <c r="E186">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>4.48</v>
+      </c>
+      <c r="C187">
+        <v>3.87</v>
+      </c>
+      <c r="D187">
+        <v>3.45</v>
+      </c>
+      <c r="E187">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>4.66</v>
+      </c>
+      <c r="C188">
+        <v>3.91</v>
+      </c>
+      <c r="D188">
+        <v>3.46</v>
+      </c>
+      <c r="E188">
+        <v>3.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,21 @@
   </si>
   <si>
     <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4146,6 +4161,91 @@
         <v>3.35</v>
       </c>
     </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>4.73</v>
+      </c>
+      <c r="C189">
+        <v>3.93</v>
+      </c>
+      <c r="D189">
+        <v>3.47</v>
+      </c>
+      <c r="E189">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>4.78</v>
+      </c>
+      <c r="C190">
+        <v>3.95</v>
+      </c>
+      <c r="D190">
+        <v>3.49</v>
+      </c>
+      <c r="E190">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>5.01</v>
+      </c>
+      <c r="C191">
+        <v>4.05</v>
+      </c>
+      <c r="D191">
+        <v>3.55</v>
+      </c>
+      <c r="E191">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>5.03</v>
+      </c>
+      <c r="C192">
+        <v>4.05</v>
+      </c>
+      <c r="D192">
+        <v>3.51</v>
+      </c>
+      <c r="E192">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>4.84</v>
+      </c>
+      <c r="C193">
+        <v>4.08</v>
+      </c>
+      <c r="D193">
+        <v>3.52</v>
+      </c>
+      <c r="E193">
+        <v>3.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Serie</t>
   </si>
@@ -605,6 +605,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -962,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4246,6 +4261,91 @@
         <v>3.37</v>
       </c>
     </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>4.84</v>
+      </c>
+      <c r="C194">
+        <v>4.08</v>
+      </c>
+      <c r="D194">
+        <v>3.51</v>
+      </c>
+      <c r="E194">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>4.83</v>
+      </c>
+      <c r="C195">
+        <v>4.09</v>
+      </c>
+      <c r="D195">
+        <v>3.53</v>
+      </c>
+      <c r="E195">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>4.91</v>
+      </c>
+      <c r="C196">
+        <v>4.1</v>
+      </c>
+      <c r="D196">
+        <v>3.54</v>
+      </c>
+      <c r="E196">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>5.03</v>
+      </c>
+      <c r="C197">
+        <v>4.16</v>
+      </c>
+      <c r="D197">
+        <v>3.57</v>
+      </c>
+      <c r="E197">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>5.51</v>
+      </c>
+      <c r="C198">
+        <v>4.49</v>
+      </c>
+      <c r="D198">
+        <v>3.73</v>
+      </c>
+      <c r="E198">
+        <v>3.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>Serie</t>
   </si>
@@ -620,6 +620,33 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4346,6 +4373,159 @@
         <v>3.42</v>
       </c>
     </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>5.49</v>
+      </c>
+      <c r="C199">
+        <v>4.54</v>
+      </c>
+      <c r="D199">
+        <v>3.74</v>
+      </c>
+      <c r="E199">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>5.45</v>
+      </c>
+      <c r="C200">
+        <v>4.56</v>
+      </c>
+      <c r="D200">
+        <v>3.71</v>
+      </c>
+      <c r="E200">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>5.42</v>
+      </c>
+      <c r="C201">
+        <v>4.71</v>
+      </c>
+      <c r="D201">
+        <v>3.59</v>
+      </c>
+      <c r="E201">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>5.51</v>
+      </c>
+      <c r="C202">
+        <v>4.82</v>
+      </c>
+      <c r="D202">
+        <v>3.69</v>
+      </c>
+      <c r="E202">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>5.46</v>
+      </c>
+      <c r="C203">
+        <v>4.85</v>
+      </c>
+      <c r="D203">
+        <v>3.71</v>
+      </c>
+      <c r="E203">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>5.45</v>
+      </c>
+      <c r="C204">
+        <v>4.82</v>
+      </c>
+      <c r="D204">
+        <v>3.72</v>
+      </c>
+      <c r="E204">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>5.53</v>
+      </c>
+      <c r="C205">
+        <v>4.8</v>
+      </c>
+      <c r="D205">
+        <v>3.69</v>
+      </c>
+      <c r="E205">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>5.55</v>
+      </c>
+      <c r="C206">
+        <v>4.82</v>
+      </c>
+      <c r="D206">
+        <v>3.71</v>
+      </c>
+      <c r="E206">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>5.55</v>
+      </c>
+      <c r="C207">
+        <v>4.84</v>
+      </c>
+      <c r="D207">
+        <v>3.74</v>
+      </c>
+      <c r="E207">
+        <v>3.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -647,6 +647,21 @@
   </si>
   <si>
     <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4526,6 +4541,91 @@
         <v>3.41</v>
       </c>
     </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>5.64</v>
+      </c>
+      <c r="C208">
+        <v>4.85</v>
+      </c>
+      <c r="D208">
+        <v>3.73</v>
+      </c>
+      <c r="E208">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>5.82</v>
+      </c>
+      <c r="C209">
+        <v>4.92</v>
+      </c>
+      <c r="D209">
+        <v>3.79</v>
+      </c>
+      <c r="E209">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>5.89</v>
+      </c>
+      <c r="C210">
+        <v>4.93</v>
+      </c>
+      <c r="D210">
+        <v>3.8</v>
+      </c>
+      <c r="E210">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>5.91</v>
+      </c>
+      <c r="C211">
+        <v>5.01</v>
+      </c>
+      <c r="D211">
+        <v>3.87</v>
+      </c>
+      <c r="E211">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>6.25</v>
+      </c>
+      <c r="C212">
+        <v>5.1</v>
+      </c>
+      <c r="D212">
+        <v>3.96</v>
+      </c>
+      <c r="E212">
+        <v>3.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,18 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4626,6 +4638,74 @@
         <v>3.64</v>
       </c>
     </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>6.02</v>
+      </c>
+      <c r="C213">
+        <v>5.07</v>
+      </c>
+      <c r="D213">
+        <v>3.98</v>
+      </c>
+      <c r="E213">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>6.12</v>
+      </c>
+      <c r="C214">
+        <v>5.1</v>
+      </c>
+      <c r="D214">
+        <v>4.01</v>
+      </c>
+      <c r="E214">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>6.27</v>
+      </c>
+      <c r="C215">
+        <v>5.17</v>
+      </c>
+      <c r="D215">
+        <v>4.07</v>
+      </c>
+      <c r="E215">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>6.23</v>
+      </c>
+      <c r="C216">
+        <v>5.09</v>
+      </c>
+      <c r="D216">
+        <v>4.02</v>
+      </c>
+      <c r="E216">
+        <v>3.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
